--- a/medicine/Sexualité et sexologie/NXIVM/NXIVM.xlsx
+++ b/medicine/Sexualité et sexologie/NXIVM/NXIVM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La NXIVM  (communément prononcé  « Nexium ») est une secte américaine fondée en 1998, sous la forme d'une organisation pyramidale ; elle recrutait ses victimes en proposant des évènements présentés comme des séminaires de développement personnel et professionnel.
 En latin, « Nexum » signifie fournir son propre asservissement jusqu'à l’extinction d'une dette envers son créancier. Il s'agit d'un contrat d'esclavage qui a existé pendant la République romaine.
-En mars 2018, son  gourou présumé, Keith Raniere, est arrêté. Il est accusé de trafic sexuel, association de malfaiteurs et menaces. L'actrice Allison Mack, considérée comme le numéro deux de la secte, est aussi arrêtée par le FBI en avril 2018. Elle aurait participé à l'embrigadement de jeunes femmes pour en faire des esclaves sexuelles[1]. Elle a plaidé coupable le 4 avril 2019. La peine prévue pour un tel acte d'accusation allait de 14 à 17 ans et demi d’emprisonnement, mais la justice a proclamé une condamnation en deçà, tenant ainsi compte de l'aide fournie par l'actrice aux enquêteurs[2]. Le 30 juin 2021, le juge condamne Allison Mack à trois ans de prison.
+En mars 2018, son  gourou présumé, Keith Raniere, est arrêté. Il est accusé de trafic sexuel, association de malfaiteurs et menaces. L'actrice Allison Mack, considérée comme le numéro deux de la secte, est aussi arrêtée par le FBI en avril 2018. Elle aurait participé à l'embrigadement de jeunes femmes pour en faire des esclaves sexuelles. Elle a plaidé coupable le 4 avril 2019. La peine prévue pour un tel acte d'accusation allait de 14 à 17 ans et demi d’emprisonnement, mais la justice a proclamé une condamnation en deçà, tenant ainsi compte de l'aide fournie par l'actrice aux enquêteurs. Le 30 juin 2021, le juge condamne Allison Mack à trois ans de prison.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NXIVM a été fondée en 1998 par Keith Raniere et Nancy Salzman dans le comté d'Albany (New York). Les reportages et les anciens membres ont qualifié NXIVM de secte, au sens pénal du terme. En 2017, le New York Times a rapporté que NXIVM désignait les membres féminins comme des « esclaves », les marquait au fer rouge avec les initiales de Keith Raniere, et les forçait à fournir des photos nues et des vidéos en garantie[3].
-Le système de formation NXIVM est administré par Executive Success Programs, Inc. La formation utilise une technique appelée « enquête rationnelle » pour faciliter le développement personnel et professionnel. Pendant les séminaires, les élèves se réfèrent à Keith Raniere et Nancy Salzman respectivement en tant qu'« avant-garde » et « préfète ». Selon les témoignages, plus de douze mille personnes ont assisté aux cours de NXIVM entre 1998 et 2010[4].
-En octobre 2003, Forbes a publié un article sur NXIVM. Les cadres de NXIVM facturent leurs prestations 25 000 dollars US par jour. Une ancienne élève a raconté qu'elle s'était trouvée physiquement épuisée, après avoir passé dix-sept heures en séminaire, et avait dû se rendre à l'hôpital. En 2006, Clare Bronfman (en) et sa sœur Sara indiquaient qu'elles avaient contracté un crédit de deux millions de dollars US pour payer à NXIVM des séances de formation personnelle organisées par la cofondatrice, Nancy Salzman[5].
-En 2003, NXIVM a intenté une action en justice contre l'Institut Ross pour violation des droits d'auteur pour avoir publié des extraits de son manuel dans trois articles critiques commandés par l'enquêteur des sectes Rick Ross. Ce dernier a publié sur son site Web une évaluation de NXIVM par un psychiatre, qui qualifie le traitement proposé de « lavage de cerveau coûteux ». Ross avait obtenu le manuel par l'ex-membre Stephanie Franco, codéfendeur du procès, qui avait signé un accord de non-divulgation des informations dudit manuel[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NXIVM a été fondée en 1998 par Keith Raniere et Nancy Salzman dans le comté d'Albany (New York). Les reportages et les anciens membres ont qualifié NXIVM de secte, au sens pénal du terme. En 2017, le New York Times a rapporté que NXIVM désignait les membres féminins comme des « esclaves », les marquait au fer rouge avec les initiales de Keith Raniere, et les forçait à fournir des photos nues et des vidéos en garantie.
+Le système de formation NXIVM est administré par Executive Success Programs, Inc. La formation utilise une technique appelée « enquête rationnelle » pour faciliter le développement personnel et professionnel. Pendant les séminaires, les élèves se réfèrent à Keith Raniere et Nancy Salzman respectivement en tant qu'« avant-garde » et « préfète ». Selon les témoignages, plus de douze mille personnes ont assisté aux cours de NXIVM entre 1998 et 2010.
+En octobre 2003, Forbes a publié un article sur NXIVM. Les cadres de NXIVM facturent leurs prestations 25 000 dollars US par jour. Une ancienne élève a raconté qu'elle s'était trouvée physiquement épuisée, après avoir passé dix-sept heures en séminaire, et avait dû se rendre à l'hôpital. En 2006, Clare Bronfman (en) et sa sœur Sara indiquaient qu'elles avaient contracté un crédit de deux millions de dollars US pour payer à NXIVM des séances de formation personnelle organisées par la cofondatrice, Nancy Salzman.
+En 2003, NXIVM a intenté une action en justice contre l'Institut Ross pour violation des droits d'auteur pour avoir publié des extraits de son manuel dans trois articles critiques commandés par l'enquêteur des sectes Rick Ross. Ce dernier a publié sur son site Web une évaluation de NXIVM par un psychiatre, qui qualifie le traitement proposé de « lavage de cerveau coûteux ». Ross avait obtenu le manuel par l'ex-membre Stephanie Franco, codéfendeur du procès, qui avait signé un accord de non-divulgation des informations dudit manuel.
 </t>
         </is>
       </c>
@@ -547,11 +561,13 @@
           <t>Trafic d'esclaves sexuels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En mars 2018, le gourou présumé Keith Raniere a été arrêté au Mexique pour trafic sexuel (avec des actes de marquage par brûlure de ses « esclaves sexuelles »). Il encourt de 15 ans à la perpétuité pour ces faits devant la justice américaine. Après six semaines de procès, il est jugé coupable des sept chefs d’inculpation retenus contre lui, dont l'exploitation sexuelle d'une adolescente de 15 ans, extorsion et association de malfaiteurs[7],[8], et condamné le 27 octobre 2020 à 120 ans de prison par le tribunal fédéral de Brooklyn. 
-L'actrice Allison Mack a également été arrêtée le 20 avril 2018 par le FBI. Elle encourt jusqu'à 15 ans d'emprisonnement pour avoir aidé le gourou à recruter des esclaves sexuelles (appelées DOS - pour Dominus Obsequious Sororium)[9],[8], expression latine qui se traduit à peu près par « Maître des compagnes obéissantes ». Le 29 juin 2021, Allison Mack est condamnée par un juge fédéral de Brooklyn à 3 ans de prison[10] pour sa participation à la secte DOS. Sa peine a été réduite dû aux informations que l'actrice a fournies aux autorités tout au long de l'enquête. L'actrice de Smallville (2001-2011) a d'ailleurs livré aux enquêteurs l’enregistrement d’une conversation avec Keith Raniere qui s’est révélé crucial pour l’accusation de celui qu'on surnommait Vanguard[11],[12].
-En septembre 2020, Clare Bronfman (en), fille et héritière d'Edgar Miles Bronfman (entreprise Seagram), est condamnée à New York à plus de six ans de prison (81 mois exactement) et une amende de 500 000 dollars après avoir plaidé coupable dans le scandale de trafic sexuel de la secte[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mars 2018, le gourou présumé Keith Raniere a été arrêté au Mexique pour trafic sexuel (avec des actes de marquage par brûlure de ses « esclaves sexuelles »). Il encourt de 15 ans à la perpétuité pour ces faits devant la justice américaine. Après six semaines de procès, il est jugé coupable des sept chefs d’inculpation retenus contre lui, dont l'exploitation sexuelle d'une adolescente de 15 ans, extorsion et association de malfaiteurs et condamné le 27 octobre 2020 à 120 ans de prison par le tribunal fédéral de Brooklyn. 
+L'actrice Allison Mack a également été arrêtée le 20 avril 2018 par le FBI. Elle encourt jusqu'à 15 ans d'emprisonnement pour avoir aidé le gourou à recruter des esclaves sexuelles (appelées DOS - pour Dominus Obsequious Sororium) expression latine qui se traduit à peu près par « Maître des compagnes obéissantes ». Le 29 juin 2021, Allison Mack est condamnée par un juge fédéral de Brooklyn à 3 ans de prison pour sa participation à la secte DOS. Sa peine a été réduite dû aux informations que l'actrice a fournies aux autorités tout au long de l'enquête. L'actrice de Smallville (2001-2011) a d'ailleurs livré aux enquêteurs l’enregistrement d’une conversation avec Keith Raniere qui s’est révélé crucial pour l’accusation de celui qu'on surnommait Vanguard,.
+En septembre 2020, Clare Bronfman (en), fille et héritière d'Edgar Miles Bronfman (entreprise Seagram), est condamnée à New York à plus de six ans de prison (81 mois exactement) et une amende de 500 000 dollars après avoir plaidé coupable dans le scandale de trafic sexuel de la secte.
 </t>
         </is>
       </c>
